--- a/iselUssSyncV2/OutputWSLorientation/20220524_1354_D50L474W30Q19.0U0.36H67.4G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1354_D50L474W30Q19.0U0.36H67.4G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.44639021271825463</v>
+        <v>0.25522288658178344</v>
       </c>
       <c r="P2" s="0">
         <v>176.63348666666673</v>
@@ -356,10 +356,10 @@
         <v>1.7327745042000007</v>
       </c>
       <c r="R2" s="0">
-        <v>1.1417837585508144</v>
+        <v>1.9970038803492038</v>
       </c>
       <c r="S2" s="0">
-        <v>0.34993822118734413</v>
+        <v>1.1077239708994693</v>
       </c>
       <c r="T2" s="0">
         <v>0.038921957191051626</v>
@@ -383,16 +383,16 @@
         <v>170000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.5176030410515642</v>
+        <v>0.86768709928445475</v>
       </c>
       <c r="AB2" s="0">
-        <v>4.9516583193475654</v>
+        <v>1.5642656020100316</v>
       </c>
       <c r="AC2" s="0">
-        <v>1.9390033928864658</v>
+        <v>1.1086220730755691</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.3627096233346574</v>
+        <v>1.1813548116673287</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>6.8906617122340315</v>
+        <v>2.672887675085601</v>
       </c>
     </row>
   </sheetData>
